--- a/biology/Histoire de la zoologie et de la botanique/Robert_Guilbot/Robert_Guilbot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Guilbot/Robert_Guilbot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Guilbot (Parthenay, 8 octobre 1943 - Versailles, 18 octobre 2008[1],[2]) est un entomologiste et un écologiste français.
-Une biographie est publiée sur le Web par Vincent Albouy[3]. Quelques précisions sont également apportées par Gérard Grolleau et Ch. Jeanneret[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Guilbot (Parthenay, 8 octobre 1943 - Versailles, 18 octobre 2008,) est un entomologiste et un écologiste français.
+Une biographie est publiée sur le Web par Vincent Albouy. Quelques précisions sont également apportées par Gérard Grolleau et Ch. Jeanneret.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1962, il entre à l'INRA, à La Minière, près de Guyancourt.
 En 1969, il participe au fonctionnement de l'OPIE (alors : Office Pour l'information Entomologique, puis : Eco-Entomologique, actuellement : Office Pour les Insectes et leur Environnement).
@@ -548,7 +562,9 @@
           <t>L'entomologiste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une passion pour les lépidoptères africains des genres Graphium et voisins.
 Il participe à la description de quatre taxa nouveaux :
@@ -558,7 +574,7 @@
 Papilio epiphorbas praedicta Turlin &amp; Guilbot, 1990
 Un taxon lui est dédié :
 Syllepte guilboti Guillermet, 2008
-Un autre insecte dédié signalé sur le Web, n'a peut-être pas fait l'objet d'une publication officielle (?)[5]
+Un autre insecte dédié signalé sur le Web, n'a peut-être pas fait l'objet d'une publication officielle (?)
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il a écrit un livre sur l'élevage des papillons qui démontre ses connaissances scientifiques, techniques et pratiques : 
 Robert Guilbot, Élevage des papillons : de leurs œufs, chenilles et chrysalides (indigènes et exotiques), Paris, Société nouvelle des éditions Boubée, 1982, 165 p. (ISBN 2-85004-034-7).
